--- a/performance/20240618/20240618.xlsx
+++ b/performance/20240618/20240618.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen9\Desktop\高科\1122_0394_人工智慧\performance\20240618\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB67D024-01EA-4223-A3DB-6882C33F968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB837AF-560B-4A0F-A508-7F1F6E573EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30610" yWindow="-110" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30610" yWindow="-110" windowWidth="23260" windowHeight="12460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>我抽出了Eight of pentacles，Nine of swords，Two of swords，请详细解释这个牌阵的涵义，包括每张牌在不同位置的象征意义，以及它们之间的相互影响和整体解读。希望能 透过这个牌阵，了解当前情境、挑战及未来可能的发展方向。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,14 +82,6 @@
   </si>
   <si>
     <t>中文llama3 new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finetune old</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finetune new</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -330,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>finetune2 new</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我抽出了Eight of pentacles，Nine of swords，Two of swords，请详细解释这个牌阵的所代表的過去、現在及未來，包括每张牌在不同位置的象征意义，以及它们之间的相互影 响和整体解读。希望能透过这个牌阵，了解当前情境、挑战及未来可能的发展方向。assistant
 这是一个关于过渡和艰难的决定的牌阵。Eight of pentacles代表着你正在学习新技能或采取新项目,并且你正在取得进展。Nine of swords象征着恐惧和焦虑,这可能阻碍你取得成功。Two of swords是平衡和公正的牌,它建议你退一步,客观地评估局势,并作出决定,不会让恐惧和偏见左右你。
 整体而言,这个牌阵表明你正面临着一个艰难的决定,你必须在恐惧和恐惧之间作出平衡的决定。八杯建议你专注于学习和成长,并相信自己作出正确的决定。</t>
@@ -370,6 +358,68 @@
 The tower: 这张牌代表着突然的、戏剧性的变化。它可能暗示你即将经历一个转变的时期,并且这也意味着不要保留，说出你真正的想法。。
 Eight of pentacles: 这张牌代表着学习和知识的时期。它可能暗示你感到陷入困境,无法向前迈进,并且这也意味着如果你努力工作,你会成功。。
 整体解读：这个牌阵表明你目前正面临着困难的决定,但如果你努力工作并集中精力,你可以利用这个变化的时期来学习和成长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finetune1.0 4*4 new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finetune1.1 4*8 new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finetune1.0 4*4 old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finetune1.1 4*4 new</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这个牌阵中，Eight of pentacles代表着过去，Nine of swords代表着当前的困境，而Two of swords则代表着未来可能的发展方向。下面是每张牌在不同位置的象征意义，以及它们之间的相互影响和整 体解读：
+Eight of pentacles（过去）：Eight of pentacles代表着过去的艰苦工作和献身精神。它可能暗示你过去曾经花费太多时间和精力在不健康的关系上，而这也代表着如果你努力工作，你会成功。。
+Nine of swords（当前）：Nine of swords代表着当前的困境和忧虑。它可能暗示你感到被困在一个无法逃脱的困境中，或者感到被困在一个无法逃脱的困境中。它可能也意味着恐惧和焦虑会阻碍你。。
+Two of swords（未来）：Two of swords代表着未来可能的发展方向。它可能暗示你需要在两个选择之间做出决定，或者你需要在两个不同的观点之间找到平衡。它可能也意味着你需要在两个不同的观点之间找到平衡。。
+总的来说，这个牌阵表明你可能感到陷入困境，但如果你花时间思考并作出决定，你就能找到出路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个牌阵的牌子是:Two of wands、Five of cups、Queen of swords。下面是每张牌子的象征意义和牌阵的整体解读：
+Two of wands:表示你有一个选择,但你不确定要走哪条路。Two of wands也象征着你可能在两条路之间挣扎,你不知道该走哪一条。
+Five of cups:表示你可能感到失望和遗憾。Five of cups也象征着你可能最近经历过一场挫折,这可能让你感到悲伤和伤心。
+Queen of swords:表示你可能处于一个需要采取决定性的行动的境地。Queen of swords也象征着你可能在不久的将来做出一个艰难的决定,这可能带来一些痛苦。
+整体解读:这个牌阵表明你正处在十字路口,你必须作出一个艰难的决定。你可能感到失望和遗憾,但你必须采取决定性的行动,并相信自己。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个牌阵由Four of swords, Ten of swords, 和Two of cups组成。让我们来看看每张牌的象征意义，以及它们之间的相互影响和整体解读。
+Four of swords: 四剑指的是休息和反思的时期。它可能暗示你需要休息一段时间,以便重新充电和思考,以便做出明智的决定。它可能暗示你需要休息一段时间,以便重新充电和思考,以便做出明智的决定。
+Ten of swords: 十剑指的是一种极大的痛苦和痛苦的时期。你可能感到陷入困境,无法摆脱困境。然而,这也象征着新的开始的潜力。虽然这可能是一个艰难的时期,但它也是一个学习和成长的时期。
+Two of cups: 两个杯子象征着关系和联系。它可能指的是浪漫关系,但也可以指任何形式的联系,如友谊或商业伙伴关系。这张牌也象征着和谐和平衡,所以它可能指的是你需要在生活中找到平衡和和谐的时期。
+整体解读: 这个牌阵表明你处于一个困难的境地,需要休息和反思。你可能感到陷入困境,无法摆脱困境,但这是一个学习和成长的时期。通过找到平衡和和谐,你可以找到出于这个境地的出路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个牌阵由 Seven of pentacles、Four of wands 和 The star 组成。它揭示了一个反思、庆祝和希望的时刻。
+Seven of pentacles 表示你正处于反思和评估的时刻。你可能正在考虑你所取得的成就,并评估你目前的状况。现在是时候停下来,思考一下你所取得的成就,并决定下一步该做什幺。
+Four of wands 表示庆祝和欢乐的时刻。你可能在生活中经历了许多变化和转变,现在是时候庆祝你所取得的成就,并享受你所得到的回报。Four of wands 也可以代表旅行和探索的时刻,所以你可能被召唤 去探索新的经历和可能性。
+The star 是希望和乐观的标志。这张牌表示你有能力实现梦想和愿望。它也象征着你的直觉和内在智慧,所以你应该相信你的内心的指导,并且相信你有能力做出正确的决定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nine of pentacles: 在牌阵中，Nine of pentacles代表了你目前的财政稳定和安全。它暗示你可能过于依赖物质财富，或者即将享受你艰苦工作的回报。Nine of pentacles也象征着你的健康会改善，
+The moon: The moon在牌阵中代表了你的直觉和内心的智慧。它可能暗示你可能陷入困境，无法作出决定。The moon也可以代表你可能被诱惑作出不明智的决定，
+Judgement: Judgement在牌阵中代表了转变和更新。它可能暗示你正处在人生的十字路口，需要作出重大的决定。Judgement也可以代表你即将离开一个不健康的环境，
+整体解读：这张牌阵表明你正处在人生的十字路口，需要作出重大的决定。Nine of pentacles表明你有能力做出正确的选择，而The moon和Judgement则表明你需要相信自己的直觉和内心的智慧来作出正确的决定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个牌阵由Two of swords、The tower和Eight of pentacles组成。它们代表了一个充满挑战的时期,但同时也提供了前进的机会。下面是每张牌在牌阵中代表的意义:
+Two of swords: 这张牌暗示你可能感到陷入困境,无法做出决定。它暗示你可能被两种选择或观点所压迫,无法做出决定。Two of swords也可以代表需要保持中立,并且在作出决定之前考虑两种选择。
+The tower: 这张牌暗示你可能经历过一个突然和意外的变化,使你的生活发生了翻转。它可能是一个困难的时期,但它也可以是一个转变和成长的时期。The tower也可以代表一个混乱的时期,你需要耐心地 等待事情平静下来。
+Eight of pentacles: 这张牌暗示你可能在你的工作中感到陷入困境,无法向前迈进。它可能是一个困难的时期,但它也可以是一个学习和成长的时期。Eight of pentacles也可以代表你可能需要退一步,重 新评估你的工作方式。
+整体解读: 这张牌阵表明你可能感到陷入困境,无法向前迈进,但它也提供了前进的机会。Two of swords鼓励你保持中立,并考虑两种选择,The tower表明你可能经历过一个突然和意外的变化,Eight of pentacles表明你需要退一步,重新评估你的工作方式,以便向前迈进。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,10 +473,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,182 +758,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="89.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="250.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="218.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="130.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="89.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="250.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="245.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="325" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="377" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="377" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="364" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="312" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="390" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="H6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="377" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="364" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="325" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -895,37 +967,144 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8815BEBF-E31B-4389-8CDA-218B333C0327}">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="147.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="325" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="273" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="312" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="325" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="299" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="364" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>